--- a/data/trans_orig/P6519-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6519-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74E7F67A-BD2D-444B-B1EB-B48B224A30F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80BC643B-1181-49C9-86E4-F8FAB44FFA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A8073892-1531-47E2-9025-CC1BCD293AE4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3D983041-DB4B-4811-8222-A858C9B646D9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="219">
   <si>
     <t>Población según tener que llevarse trabajo a casa durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,93%)</t>
   </si>
@@ -74,625 +74,622 @@
     <t>94,19%</t>
   </si>
   <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
     <t>84,39%</t>
   </si>
   <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
   </si>
   <si>
     <t>2,76%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
   </si>
   <si>
     <t>1,34%</t>
   </si>
   <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1107,7 +1104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF916A4-09E4-416A-A84F-BAB5025CC3CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547A36C9-ADFD-4CBB-A436-1455843CF646}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1901,10 +1898,10 @@
         <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -1913,13 +1910,13 @@
         <v>9107</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -1928,13 +1925,13 @@
         <v>19192</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1990,7 +1987,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2002,13 +1999,13 @@
         <v>323902</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H19" s="7">
         <v>176</v>
@@ -2017,13 +2014,13 @@
         <v>176178</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M19" s="7">
         <v>474</v>
@@ -2032,13 +2029,13 @@
         <v>500081</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2053,13 +2050,13 @@
         <v>59606</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -2068,13 +2065,13 @@
         <v>25279</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>81</v>
@@ -2083,13 +2080,13 @@
         <v>84885</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2104,13 +2101,13 @@
         <v>10824</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -2119,13 +2116,13 @@
         <v>6835</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>17</v>
@@ -2134,13 +2131,13 @@
         <v>17660</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2155,13 +2152,13 @@
         <v>10070</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2170,13 +2167,13 @@
         <v>3673</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -2185,13 +2182,13 @@
         <v>13743</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,7 +2244,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2259,13 +2256,13 @@
         <v>466083</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H24" s="7">
         <v>305</v>
@@ -2274,13 +2271,13 @@
         <v>324227</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M24" s="7">
         <v>791</v>
@@ -2289,13 +2286,13 @@
         <v>790310</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2310,13 +2307,13 @@
         <v>44452</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H25" s="7">
         <v>34</v>
@@ -2325,13 +2322,13 @@
         <v>35630</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M25" s="7">
         <v>81</v>
@@ -2340,13 +2337,13 @@
         <v>80082</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2361,13 +2358,13 @@
         <v>23221</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H26" s="7">
         <v>20</v>
@@ -2376,13 +2373,13 @@
         <v>21351</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M26" s="7">
         <v>43</v>
@@ -2391,13 +2388,13 @@
         <v>44572</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2415,10 +2412,10 @@
         <v>97</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="H27" s="7">
         <v>6</v>
@@ -2427,13 +2424,13 @@
         <v>6012</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M27" s="7">
         <v>24</v>
@@ -2442,13 +2439,13 @@
         <v>26556</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>73</v>
+        <v>181</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2516,13 +2513,13 @@
         <v>1627279</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H29" s="7">
         <v>817</v>
@@ -2531,13 +2528,13 @@
         <v>852811</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M29" s="7">
         <v>2376</v>
@@ -2546,13 +2543,13 @@
         <v>2480090</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2567,13 +2564,13 @@
         <v>164816</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H30" s="7">
         <v>100</v>
@@ -2582,13 +2579,13 @@
         <v>104429</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M30" s="7">
         <v>260</v>
@@ -2597,13 +2594,13 @@
         <v>269245</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2618,13 +2615,13 @@
         <v>64821</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H31" s="7">
         <v>37</v>
@@ -2633,13 +2630,13 @@
         <v>39115</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M31" s="7">
         <v>99</v>
@@ -2648,13 +2645,13 @@
         <v>103936</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,13 +2666,13 @@
         <v>43719</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="H32" s="7">
         <v>21</v>
@@ -2684,13 +2681,13 @@
         <v>21312</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M32" s="7">
         <v>60</v>
@@ -2699,13 +2696,13 @@
         <v>65032</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2761,7 +2758,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6519-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6519-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80BC643B-1181-49C9-86E4-F8FAB44FFA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F428A50-45A6-4AF0-836B-C2F1B5C0D531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3D983041-DB4B-4811-8222-A858C9B646D9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DDC1B540-F360-48FA-8CC2-C6EE4F311060}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="218">
   <si>
     <t>Población según tener que llevarse trabajo a casa durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,93%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -74,7 +74,7 @@
     <t>94,19%</t>
   </si>
   <si>
-    <t>86,06%</t>
+    <t>82,64%</t>
   </si>
   <si>
     <t>98,14%</t>
@@ -83,19 +83,19 @@
     <t>89,37%</t>
   </si>
   <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
   </si>
   <si>
     <t>92,74%</t>
   </si>
   <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -107,22 +107,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>10,11%</t>
+    <t>11,57%</t>
   </si>
   <si>
     <t>7,01%</t>
   </si>
   <si>
-    <t>24,8%</t>
+    <t>21,2%</t>
   </si>
   <si>
     <t>3,45%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -131,22 +131,22 @@
     <t>3,89%</t>
   </si>
   <si>
-    <t>12,16%</t>
+    <t>13,61%</t>
   </si>
   <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>18,49%</t>
+    <t>18,16%</t>
   </si>
   <si>
     <t>3,81%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -167,25 +167,25 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>91,81%</t>
   </si>
   <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
   </si>
   <si>
     <t>87,15%</t>
   </si>
   <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
   </si>
   <si>
     <t>90,49%</t>
@@ -194,280 +194,277 @@
     <t>87,48%</t>
   </si>
   <si>
-    <t>93,0%</t>
+    <t>92,95%</t>
   </si>
   <si>
     <t>4,86%</t>
   </si>
   <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
   </si>
   <si>
     <t>10,15%</t>
   </si>
   <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
     <t>5,59%</t>
   </si>
   <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
   </si>
   <si>
     <t>3,5%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>80,09%</t>
   </si>
   <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
   </si>
   <si>
     <t>83,12%</t>
   </si>
   <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
   </si>
   <si>
     <t>81,13%</t>
   </si>
   <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
   </si>
   <si>
     <t>14,74%</t>
   </si>
   <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
   </si>
   <si>
     <t>11,93%</t>
   </si>
   <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
   </si>
   <si>
     <t>13,77%</t>
   </si>
   <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
   </si>
   <si>
     <t>2,68%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
   </si>
   <si>
     <t>3,22%</t>
   </si>
   <si>
-    <t>6,02%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
   </si>
   <si>
     <t>2,87%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
   </si>
   <si>
     <t>1,73%</t>
@@ -476,13 +473,13 @@
     <t>0,46%</t>
   </si>
   <si>
-    <t>5,57%</t>
+    <t>5,21%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>3,86%</t>
+    <t>1,13%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -491,154 +488,154 @@
     <t>84,08%</t>
   </si>
   <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
   </si>
   <si>
     <t>83,73%</t>
   </si>
   <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
   </si>
   <si>
     <t>83,94%</t>
   </si>
   <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
   </si>
   <si>
     <t>8,02%</t>
   </si>
   <si>
+    <t>6,04%</t>
+  </si>
+  <si>
     <t>10,45%</t>
   </si>
   <si>
     <t>9,2%</t>
   </si>
   <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
   </si>
   <si>
     <t>8,51%</t>
   </si>
   <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
   </si>
   <si>
     <t>4,19%</t>
   </si>
   <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
   </si>
   <si>
     <t>5,51%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
   </si>
   <si>
     <t>4,73%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
   </si>
   <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
   </si>
   <si>
     <t>2,82%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
   </si>
   <si>
     <t>85,62%</t>
   </si>
   <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
   </si>
   <si>
     <t>83,8%</t>
   </si>
   <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
   </si>
   <si>
     <t>84,98%</t>
   </si>
   <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
   </si>
   <si>
     <t>8,67%</t>
   </si>
   <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
   </si>
   <si>
     <t>10,26%</t>
   </si>
   <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
   </si>
   <si>
     <t>9,23%</t>
   </si>
   <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
+    <t>8,03%</t>
   </si>
   <si>
     <t>3,41%</t>
@@ -647,22 +644,22 @@
     <t>2,61%</t>
   </si>
   <si>
-    <t>4,35%</t>
+    <t>4,31%</t>
   </si>
   <si>
     <t>3,84%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>2,93%</t>
+    <t>2,9%</t>
   </si>
   <si>
     <t>4,3%</t>
@@ -671,25 +668,25 @@
     <t>2,3%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1104,7 +1101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547A36C9-ADFD-4CBB-A436-1455843CF646}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4945F30C-0956-432B-A8C0-B05BD301EC77}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1898,10 +1895,10 @@
         <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -1910,13 +1907,13 @@
         <v>9107</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -1925,13 +1922,13 @@
         <v>19192</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,7 +1984,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1999,13 +1996,13 @@
         <v>323902</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H19" s="7">
         <v>176</v>
@@ -2014,13 +2011,13 @@
         <v>176178</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M19" s="7">
         <v>474</v>
@@ -2029,13 +2026,13 @@
         <v>500081</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2050,13 +2047,13 @@
         <v>59606</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -2065,13 +2062,13 @@
         <v>25279</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>81</v>
@@ -2080,13 +2077,13 @@
         <v>84885</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2101,13 +2098,13 @@
         <v>10824</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -2116,13 +2113,13 @@
         <v>6835</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>17</v>
@@ -2131,13 +2128,13 @@
         <v>17660</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2152,13 +2149,13 @@
         <v>10070</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2167,13 +2164,13 @@
         <v>3673</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -2182,13 +2179,13 @@
         <v>13743</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,7 +2241,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2256,13 +2253,13 @@
         <v>466083</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H24" s="7">
         <v>305</v>
@@ -2271,13 +2268,13 @@
         <v>324227</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M24" s="7">
         <v>791</v>
@@ -2286,13 +2283,13 @@
         <v>790310</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,10 +2304,10 @@
         <v>44452</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>160</v>
@@ -2391,10 +2388,10 @@
         <v>173</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2412,10 +2409,10 @@
         <v>97</v>
       </c>
       <c r="F27" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H27" s="7">
         <v>6</v>
@@ -2600,7 +2597,7 @@
         <v>199</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2615,13 +2612,13 @@
         <v>64821</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H31" s="7">
         <v>37</v>
@@ -2630,13 +2627,13 @@
         <v>39115</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M31" s="7">
         <v>99</v>
@@ -2645,13 +2642,13 @@
         <v>103936</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2666,13 +2663,13 @@
         <v>43719</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H32" s="7">
         <v>21</v>
@@ -2681,13 +2678,13 @@
         <v>21312</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M32" s="7">
         <v>60</v>
@@ -2696,13 +2693,13 @@
         <v>65032</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2758,7 +2755,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6519-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6519-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F428A50-45A6-4AF0-836B-C2F1B5C0D531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBF83890-F10B-4C4F-BCD9-DCE6E69153DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DDC1B540-F360-48FA-8CC2-C6EE4F311060}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6CE9C3AB-E86C-4093-9A88-2FECEC98244E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="220">
   <si>
     <t>Población según tener que llevarse trabajo a casa durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,93%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>94,19%</t>
   </si>
   <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
   </si>
   <si>
     <t>89,37%</t>
   </si>
   <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
   </si>
   <si>
     <t>92,74%</t>
   </si>
   <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -107,22 +107,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>11,57%</t>
+    <t>9,82%</t>
   </si>
   <si>
     <t>7,01%</t>
   </si>
   <si>
-    <t>21,2%</t>
+    <t>21,35%</t>
   </si>
   <si>
     <t>3,45%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -131,22 +131,22 @@
     <t>3,89%</t>
   </si>
   <si>
-    <t>13,61%</t>
+    <t>12,01%</t>
   </si>
   <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>18,16%</t>
+    <t>15,03%</t>
   </si>
   <si>
     <t>3,81%</t>
   </si>
   <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -173,520 +173,526 @@
     <t>91,81%</t>
   </si>
   <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
   </si>
   <si>
     <t>87,15%</t>
   </si>
   <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
   </si>
   <si>
     <t>90,49%</t>
   </si>
   <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
   </si>
   <si>
     <t>4,86%</t>
   </si>
   <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
   </si>
   <si>
     <t>10,15%</t>
   </si>
   <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
   </si>
   <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
   </si>
   <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>4,08%</t>
+    <t>3,88%</t>
   </si>
   <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>0,29%</t>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
   </si>
   <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
   </si>
   <si>
     <t>5,21%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
   </si>
   <si>
     <t>2,3%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
+    <t>1,67%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1101,7 +1107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4945F30C-0956-432B-A8C0-B05BD301EC77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C845834A-6188-434A-91C9-FC25FB1C81F2}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2134,7 +2140,7 @@
         <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2149,13 +2155,13 @@
         <v>10070</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2164,13 +2170,13 @@
         <v>3673</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -2179,13 +2185,13 @@
         <v>13743</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2241,7 +2247,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2253,13 +2259,13 @@
         <v>466083</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H24" s="7">
         <v>305</v>
@@ -2268,13 +2274,13 @@
         <v>324227</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M24" s="7">
         <v>791</v>
@@ -2283,13 +2289,13 @@
         <v>790310</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,13 +2310,13 @@
         <v>44452</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>34</v>
@@ -2319,13 +2325,13 @@
         <v>35630</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M25" s="7">
         <v>81</v>
@@ -2334,13 +2340,13 @@
         <v>80082</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,13 +2361,13 @@
         <v>23221</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>20</v>
@@ -2370,13 +2376,13 @@
         <v>21351</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M26" s="7">
         <v>43</v>
@@ -2385,13 +2391,13 @@
         <v>44572</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2409,10 +2415,10 @@
         <v>97</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H27" s="7">
         <v>6</v>
@@ -2421,13 +2427,13 @@
         <v>6012</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M27" s="7">
         <v>24</v>
@@ -2436,13 +2442,13 @@
         <v>26556</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>181</v>
+        <v>73</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,13 +2516,13 @@
         <v>1627279</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H29" s="7">
         <v>817</v>
@@ -2525,13 +2531,13 @@
         <v>852811</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M29" s="7">
         <v>2376</v>
@@ -2540,13 +2546,13 @@
         <v>2480090</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2561,13 +2567,13 @@
         <v>164816</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H30" s="7">
         <v>100</v>
@@ -2576,13 +2582,13 @@
         <v>104429</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M30" s="7">
         <v>260</v>
@@ -2591,13 +2597,13 @@
         <v>269245</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,13 +2618,13 @@
         <v>64821</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H31" s="7">
         <v>37</v>
@@ -2627,13 +2633,13 @@
         <v>39115</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M31" s="7">
         <v>99</v>
@@ -2642,13 +2648,13 @@
         <v>103936</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,13 +2669,13 @@
         <v>43719</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="H32" s="7">
         <v>21</v>
@@ -2678,13 +2684,13 @@
         <v>21312</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="M32" s="7">
         <v>60</v>
@@ -2693,13 +2699,13 @@
         <v>65032</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,7 +2761,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6519-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6519-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBF83890-F10B-4C4F-BCD9-DCE6E69153DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59999BA8-A430-4761-9E8C-44AF41A29D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6CE9C3AB-E86C-4093-9A88-2FECEC98244E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4488E664-849B-47FF-ACDD-89611AA16938}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="190">
   <si>
     <t>Población según tener que llevarse trabajo a casa durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,93%)</t>
   </si>
@@ -65,532 +65,442 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
   </si>
   <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>1,91%</t>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
   </si>
   <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
   </si>
   <si>
     <t>1,95%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
   </si>
   <si>
     <t>4,21%</t>
@@ -1107,8 +1017,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C845834A-6188-434A-91C9-FC25FB1C81F2}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4330A57B-3145-4C9E-ADC9-16D536F3DF68}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1225,10 +1135,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>47</v>
+        <v>337</v>
       </c>
       <c r="D4" s="7">
-        <v>53621</v>
+        <v>354047</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1240,10 +1150,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="I4" s="7">
-        <v>21890</v>
+        <v>134479</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1255,10 +1165,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>71</v>
+        <v>469</v>
       </c>
       <c r="N4" s="7">
-        <v>75511</v>
+        <v>488526</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1276,10 +1186,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7">
-        <v>1088</v>
+        <v>16991</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1291,136 +1201,136 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I5" s="7">
-        <v>1718</v>
+        <v>14826</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="N5" s="7">
-        <v>2807</v>
+        <v>31817</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7">
+        <v>10092</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="7">
-        <v>2217</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
       <c r="I6" s="7">
-        <v>885</v>
+        <v>1862</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N6" s="7">
-        <v>3102</v>
+        <v>11954</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>3020</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>2521</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>5541</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1429,102 +1339,102 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>50</v>
+        <v>367</v>
       </c>
       <c r="D8" s="7">
-        <v>56926</v>
+        <v>384150</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
-        <v>27</v>
+        <v>151</v>
       </c>
       <c r="I8" s="7">
-        <v>24493</v>
+        <v>153688</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
-        <v>77</v>
+        <v>518</v>
       </c>
       <c r="N8" s="7">
-        <v>81419</v>
+        <v>537838</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>290</v>
+        <v>438</v>
       </c>
       <c r="D9" s="7">
-        <v>300425</v>
+        <v>483246</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>108</v>
+        <v>204</v>
       </c>
       <c r="I9" s="7">
-        <v>112589</v>
+        <v>217927</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>398</v>
+        <v>642</v>
       </c>
       <c r="N9" s="7">
-        <v>413015</v>
+        <v>701173</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1533,151 +1443,151 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D10" s="7">
-        <v>15903</v>
+        <v>43766</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I10" s="7">
-        <v>13108</v>
+        <v>28694</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="N10" s="7">
-        <v>29010</v>
+        <v>72461</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
+        <v>19</v>
+      </c>
+      <c r="D11" s="7">
+        <v>20684</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="7">
         <v>8</v>
       </c>
-      <c r="D11" s="7">
-        <v>7875</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
       <c r="I11" s="7">
-        <v>977</v>
+        <v>9067</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="N11" s="7">
-        <v>8852</v>
+        <v>29750</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D12" s="7">
-        <v>3020</v>
+        <v>10085</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I12" s="7">
-        <v>2521</v>
+        <v>9107</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="N12" s="7">
-        <v>5541</v>
+        <v>19192</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1686,102 +1596,102 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>317</v>
+        <v>506</v>
       </c>
       <c r="D13" s="7">
-        <v>327223</v>
+        <v>557781</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
-        <v>124</v>
+        <v>247</v>
       </c>
       <c r="I13" s="7">
-        <v>129195</v>
+        <v>264795</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
-        <v>441</v>
+        <v>753</v>
       </c>
       <c r="N13" s="7">
-        <v>456418</v>
+        <v>822576</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>438</v>
+        <v>298</v>
       </c>
       <c r="D14" s="7">
-        <v>483246</v>
+        <v>323902</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="I14" s="7">
-        <v>217927</v>
+        <v>176178</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
-        <v>642</v>
+        <v>474</v>
       </c>
       <c r="N14" s="7">
-        <v>701173</v>
+        <v>500081</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1790,151 +1700,151 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D15" s="7">
-        <v>43766</v>
+        <v>59606</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I15" s="7">
-        <v>28694</v>
+        <v>25279</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M15" s="7">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="N15" s="7">
-        <v>72461</v>
+        <v>84885</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>20684</v>
+        <v>10824</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I16" s="7">
-        <v>9067</v>
+        <v>6835</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="N16" s="7">
-        <v>29750</v>
+        <v>17660</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>9</v>
       </c>
       <c r="D17" s="7">
-        <v>10085</v>
+        <v>10070</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>9107</v>
+        <v>3673</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N17" s="7">
-        <v>19192</v>
+        <v>13743</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1943,102 +1853,102 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>506</v>
+        <v>373</v>
       </c>
       <c r="D18" s="7">
-        <v>557781</v>
+        <v>404403</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="I18" s="7">
-        <v>264795</v>
+        <v>211965</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
-        <v>753</v>
+        <v>585</v>
       </c>
       <c r="N18" s="7">
-        <v>822576</v>
+        <v>616368</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>298</v>
+        <v>486</v>
       </c>
       <c r="D19" s="7">
-        <v>323902</v>
+        <v>466083</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
-        <v>176</v>
+        <v>305</v>
       </c>
       <c r="I19" s="7">
-        <v>176178</v>
+        <v>324227</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
-        <v>474</v>
+        <v>791</v>
       </c>
       <c r="N19" s="7">
-        <v>500081</v>
+        <v>790310</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,151 +1957,151 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D20" s="7">
-        <v>59606</v>
+        <v>44452</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I20" s="7">
-        <v>25279</v>
+        <v>35630</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>81</v>
       </c>
       <c r="N20" s="7">
-        <v>84885</v>
+        <v>80082</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D21" s="7">
-        <v>10824</v>
+        <v>23221</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I21" s="7">
-        <v>6835</v>
+        <v>21351</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="N21" s="7">
-        <v>17660</v>
+        <v>44572</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D22" s="7">
-        <v>10070</v>
+        <v>20545</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="H22" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I22" s="7">
-        <v>3673</v>
+        <v>6012</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="N22" s="7">
-        <v>13743</v>
+        <v>26556</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2200,102 +2110,102 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>373</v>
+        <v>574</v>
       </c>
       <c r="D23" s="7">
-        <v>404403</v>
+        <v>554301</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
-        <v>212</v>
+        <v>365</v>
       </c>
       <c r="I23" s="7">
-        <v>211965</v>
+        <v>387220</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
-        <v>585</v>
+        <v>939</v>
       </c>
       <c r="N23" s="7">
-        <v>616368</v>
+        <v>941521</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>486</v>
+        <v>1559</v>
       </c>
       <c r="D24" s="7">
-        <v>466083</v>
+        <v>1627279</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H24" s="7">
-        <v>305</v>
+        <v>817</v>
       </c>
       <c r="I24" s="7">
-        <v>324227</v>
+        <v>852811</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M24" s="7">
-        <v>791</v>
+        <v>2376</v>
       </c>
       <c r="N24" s="7">
-        <v>790310</v>
+        <v>2480090</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,151 +2214,151 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="D25" s="7">
-        <v>44452</v>
+        <v>164816</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H25" s="7">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="I25" s="7">
-        <v>35630</v>
+        <v>104429</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M25" s="7">
-        <v>81</v>
+        <v>260</v>
       </c>
       <c r="N25" s="7">
-        <v>80082</v>
+        <v>269245</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="D26" s="7">
-        <v>23221</v>
+        <v>64821</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H26" s="7">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I26" s="7">
-        <v>21351</v>
+        <v>39115</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M26" s="7">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="N26" s="7">
-        <v>44572</v>
+        <v>103936</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D27" s="7">
-        <v>20545</v>
+        <v>43719</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>97</v>
+        <v>183</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="H27" s="7">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="I27" s="7">
-        <v>6012</v>
+        <v>21312</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="M27" s="7">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="N27" s="7">
-        <v>26556</v>
+        <v>65032</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>73</v>
+        <v>187</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2457,319 +2367,61 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>574</v>
+        <v>1820</v>
       </c>
       <c r="D28" s="7">
-        <v>554301</v>
+        <v>1900635</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
-        <v>365</v>
+        <v>975</v>
       </c>
       <c r="I28" s="7">
-        <v>387220</v>
+        <v>1017668</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M28" s="7">
-        <v>939</v>
+        <v>2795</v>
       </c>
       <c r="N28" s="7">
-        <v>941521</v>
+        <v>2918303</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>1559</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1627279</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H29" s="7">
-        <v>817</v>
-      </c>
-      <c r="I29" s="7">
-        <v>852811</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="A29" t="s">
         <v>189</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M29" s="7">
-        <v>2376</v>
-      </c>
-      <c r="N29" s="7">
-        <v>2480090</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7">
-        <v>160</v>
-      </c>
-      <c r="D30" s="7">
-        <v>164816</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H30" s="7">
-        <v>100</v>
-      </c>
-      <c r="I30" s="7">
-        <v>104429</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="M30" s="7">
-        <v>260</v>
-      </c>
-      <c r="N30" s="7">
-        <v>269245</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="7">
-        <v>62</v>
-      </c>
-      <c r="D31" s="7">
-        <v>64821</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H31" s="7">
-        <v>37</v>
-      </c>
-      <c r="I31" s="7">
-        <v>39115</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M31" s="7">
-        <v>99</v>
-      </c>
-      <c r="N31" s="7">
-        <v>103936</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="7">
-        <v>39</v>
-      </c>
-      <c r="D32" s="7">
-        <v>43719</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="H32" s="7">
-        <v>21</v>
-      </c>
-      <c r="I32" s="7">
-        <v>21312</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="M32" s="7">
-        <v>60</v>
-      </c>
-      <c r="N32" s="7">
-        <v>65032</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>1820</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1900635</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H33" s="7">
-        <v>975</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1017668</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M33" s="7">
-        <v>2795</v>
-      </c>
-      <c r="N33" s="7">
-        <v>2918303</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>219</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
